--- a/Tajawal/src/main/java/com/saal/qa/testdata/TajawalTestData1.xlsx
+++ b/Tajawal/src/main/java/com/saal/qa/testdata/TajawalTestData1.xlsx
@@ -30,9 +30,6 @@
     <t>passenger</t>
   </si>
   <si>
-    <t>2019-07-01</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>TRV</t>
+  </si>
+  <si>
+    <t>2019-07-08</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,16 +418,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
